--- a/Book1 (version 1).xlsx
+++ b/Book1 (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rainc\OneDrive\Desktop\2021-1\1. ADA\ADA 2021\proyecto1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6667B35A-6DF3-4E17-A97E-1C0109BA9CB2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043D9F41-3ED9-49B0-9409-ABB09DFE0242}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2C546AA0-6CCC-4CBD-850D-E830A49F63B7}"/>
   </bookViews>
